--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -232,6 +232,66 @@
   </si>
   <si>
     <t>Còn BH</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Nguồn chập chờn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>xử lý lại nguồn module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector nguồn, reset liện tục</t>
+  </si>
+  <si>
+    <t>Thay connector, nạp lại FW</t>
+  </si>
+  <si>
+    <t>ID: 202106031025020</t>
+  </si>
+  <si>
+    <t>Thay vỏ hộp</t>
+  </si>
+  <si>
+    <t>Thiếu linh kiện giữ lại</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
   </si>
 </sst>
 </file>
@@ -309,7 +369,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +385,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -655,6 +721,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -667,32 +757,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1033,43 +1126,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1114,58 +1207,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1190,23 +1283,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,7 +1309,9 @@
       <c r="B6" s="37">
         <v>44352</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44354</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1228,19 +1323,35 @@
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K6" s="61"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1255,7 +1366,9 @@
       <c r="B7" s="37">
         <v>44352</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44354</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -1266,20 +1379,38 @@
       <c r="G7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
+      <c r="H7" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>79</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1308,7 +1439,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1337,7 +1468,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1366,7 +1497,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1526,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1555,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1455,7 +1586,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1484,7 +1615,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1513,7 +1644,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1542,7 +1673,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1792,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1725,7 +1856,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -1938,7 +2069,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2130,7 +2261,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2162,7 +2293,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2194,7 +2325,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2773,6 +2904,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2784,13 +2922,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2802,7 +2933,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2834,43 +2965,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -2915,58 +3046,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -2991,23 +3122,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3017,7 +3148,9 @@
       <c r="B6" s="37">
         <v>44352</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44354</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>63</v>
       </c>
@@ -3029,19 +3162,35 @@
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>73</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3056,7 +3205,9 @@
       <c r="B7" s="37">
         <v>44352</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44354</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>63</v>
       </c>
@@ -3068,130 +3219,152 @@
         <v>65</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
+      <c r="I7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>66</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>70</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="74"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="95">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="88">
         <v>44352</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="90">
         <v>864811037118437</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
+      <c r="F8" s="89"/>
+      <c r="G8" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="H8" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="91"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="95"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="74"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="95">
         <v>4</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="88">
         <v>44352</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="90">
         <v>864811036970148</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38" t="s">
+      <c r="F9" s="89"/>
+      <c r="G9" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="H9" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="91"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="95"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="74"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="95">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="88">
         <v>44352</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="90">
         <v>868345035624402</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
+      <c r="H10" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="91"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="95"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3220,7 +3393,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3249,7 +3422,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3280,7 +3453,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3309,7 +3482,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3338,7 +3511,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3367,7 +3540,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3518,7 +3691,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3550,7 +3723,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3763,7 +3936,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -3955,7 +4128,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4019,7 +4192,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4598,6 +4771,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4609,13 +4789,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4659,43 +4832,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4740,58 +4913,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4816,23 +4989,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4858,7 +5031,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4889,7 +5062,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4918,7 +5091,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4947,7 +5120,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4976,7 +5149,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5005,7 +5178,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5034,7 +5207,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5065,7 +5238,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5094,7 +5267,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5123,7 +5296,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5152,7 +5325,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6383,13 +6556,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6401,6 +6567,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
@@ -9,27 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102LE" sheetId="31" r:id="rId1"/>
-    <sheet name="TG102V" sheetId="32" r:id="rId2"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId3"/>
+    <sheet name="TG102SE" sheetId="33" r:id="rId1"/>
+    <sheet name="TG102LE" sheetId="31" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="32" r:id="rId3"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -264,9 +267,6 @@
     <t>Thiết bị không chốt GSM</t>
   </si>
   <si>
-    <t>xử lý lại nguồn module GSM, nâng cấp FW</t>
-  </si>
-  <si>
     <t>PC+PM</t>
   </si>
   <si>
@@ -292,6 +292,90 @@
   </si>
   <si>
     <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180115</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Khay sim chập chờn</t>
+  </si>
+  <si>
+    <t>Thay khay sim</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test lại thiết bị </t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>SE.2.03.---25.111215</t>
+  </si>
+  <si>
+    <t>Lock: 124.158.005.014,16870</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nổ nguồn</t>
+  </si>
+  <si>
+    <t>Thay cầu chì, diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Thay module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>Imei mới: 868926033950178</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14242</t>
   </si>
 </sst>
 </file>
@@ -497,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -721,6 +805,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -759,33 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,7 +1189,2116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="92"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93"/>
+      <c r="B5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="88"/>
+      <c r="K5" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868345035589050</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="75"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="39">
+        <v>861694031753666</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="75"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="39">
+        <v>861694031110701</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="75"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="39">
+        <v>861694031760059</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="75"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="39">
+        <v>202103261225338</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="75"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="39">
+        <v>861694037976113</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="75"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="39">
+        <v>861694031749318</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="75"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="39">
+        <v>202105191407643</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="75"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="39">
+        <v>861694031119132</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="75"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="39">
+        <v>862631034723055</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="75"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="39">
+        <v>866104024656145</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="75"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="39">
+        <v>866104022178977</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="75"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>9</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>1</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>1</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>3</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>7</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>14</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
@@ -1126,43 +3331,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1207,58 +3412,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="100" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1283,23 +3488,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,14 +3532,14 @@
         <v>68</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
@@ -1344,14 +3549,14 @@
         <v>72</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="38" t="s">
         <v>77</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>78</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1380,20 +3585,20 @@
         <v>65</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="50" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
@@ -1410,7 +3615,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1439,7 +3644,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +3673,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +3702,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1526,7 +3731,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1555,7 +3760,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1586,7 +3791,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1615,7 +3820,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1644,7 +3849,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1673,7 +3878,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2904,13 +5109,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2922,18 +5120,25 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2965,43 +5170,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3046,58 +5251,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="100" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3122,23 +5327,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,9 +5376,11 @@
       <c r="K6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="40"/>
+      <c r="L6" s="61" t="s">
+        <v>89</v>
+      </c>
       <c r="M6" s="40" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
@@ -3183,14 +5390,14 @@
         <v>72</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="38" t="s">
         <v>77</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>78</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3247,124 +5454,124 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="74"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95">
+      <c r="A8" s="84">
         <v>3</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="77">
         <v>44352</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89" t="s">
+      <c r="C8" s="77"/>
+      <c r="D8" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="79">
         <v>864811037118437</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89" t="s">
+      <c r="F8" s="78"/>
+      <c r="G8" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="91"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="95"/>
+      <c r="H8" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="80"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="84"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="74"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95">
+      <c r="A9" s="84">
         <v>4</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="77">
         <v>44352</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89" t="s">
+      <c r="C9" s="77"/>
+      <c r="D9" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="79">
         <v>864811036970148</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="91"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="95"/>
+      <c r="H9" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="80"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="84"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="74"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95">
+      <c r="A10" s="84">
         <v>5</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="77">
         <v>44352</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="89" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="79">
         <v>868345035624402</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89" t="s">
+      <c r="F10" s="78"/>
+      <c r="G10" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="91"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="95"/>
+      <c r="H10" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="80"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="84"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3374,26 +5581,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="65">
+        <v>44323</v>
+      </c>
+      <c r="C11" s="65">
+        <v>44355</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868926033939288</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="I11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="41"/>
+      <c r="O11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3422,7 +5657,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3453,7 +5688,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3482,7 +5717,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3511,7 +5746,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3540,7 +5775,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3723,7 +5958,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3936,7 +6171,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -4128,7 +6363,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4192,7 +6427,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4545,7 +6780,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -4771,13 +7006,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4789,13 +7017,20 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -4832,43 +7067,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4913,58 +7148,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="100" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4989,23 +7224,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5031,7 +7266,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5062,7 +7297,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5091,7 +7326,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5120,7 +7355,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5149,7 +7384,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5178,7 +7413,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5207,7 +7442,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5238,7 +7473,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5267,7 +7502,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5296,7 +7531,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5325,7 +7560,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6556,6 +8791,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6567,13 +8809,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="33" r:id="rId1"/>
@@ -844,9 +844,24 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -866,21 +881,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1222,43 +1222,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1303,58 +1303,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="100" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1379,23 +1379,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="76" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3270,13 +3270,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3288,6 +3281,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3331,43 +3331,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3412,58 +3412,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="100" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3488,23 +3488,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3791,7 +3791,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3820,7 +3820,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5109,6 +5109,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5120,13 +5127,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5137,8 +5137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5170,43 +5170,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -5251,58 +5251,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="100" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -5327,23 +5327,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5493,7 +5493,7 @@
       <c r="R8" s="78"/>
       <c r="S8" s="84"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="R9" s="78"/>
       <c r="S9" s="84"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5571,7 +5571,7 @@
       <c r="R10" s="78"/>
       <c r="S10" s="84"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5581,8 +5581,8 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="65">
-        <v>44323</v>
+      <c r="B11" s="77">
+        <v>44354</v>
       </c>
       <c r="C11" s="65">
         <v>44355</v>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5657,7 +5657,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5688,7 +5688,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5746,7 +5746,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5775,7 +5775,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7006,6 +7006,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7017,13 +7024,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7067,43 +7067,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7148,58 +7148,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="100" t="s">
+      <c r="S4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="92" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7224,23 +7224,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7266,7 +7266,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7297,7 +7297,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7326,7 +7326,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7355,7 +7355,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7384,7 +7384,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7413,7 +7413,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7473,7 +7473,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7502,7 +7502,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7531,7 +7531,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8791,13 +8791,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8809,6 +8802,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="117">
   <si>
     <t>STT</t>
   </si>
@@ -376,6 +376,18 @@
   </si>
   <si>
     <t>Lock: 125.212.203.114,14242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thay vỏ làm mới</t>
   </si>
 </sst>
 </file>
@@ -581,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -835,15 +847,36 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,31 +889,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1222,43 +1231,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="97"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1303,58 +1312,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="99" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="99" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1379,23 +1388,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="76" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1425,7 +1434,7 @@
       <c r="J6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="85" t="s">
         <v>90</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -1449,7 +1458,7 @@
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="95" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1486,7 +1495,7 @@
       <c r="J7" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="85" t="s">
         <v>96</v>
       </c>
       <c r="L7" s="40" t="s">
@@ -1510,7 +1519,7 @@
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="96"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1545,7 +1554,7 @@
       <c r="J8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="87" t="s">
+      <c r="K8" s="86" t="s">
         <v>91</v>
       </c>
       <c r="L8" s="40"/>
@@ -1567,7 +1576,7 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="96"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1624,7 +1633,7 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="96"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1679,7 +1688,7 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="96"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1734,7 +1743,7 @@
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="96"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1798,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="95" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1846,7 +1855,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="96"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1901,7 +1910,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="96"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +1965,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="96"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2011,7 +2020,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="97"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3270,6 +3279,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3281,13 +3297,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3331,43 +3340,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="97"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3412,58 +3421,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="99" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="99" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3488,23 +3497,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,7 +3565,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="95" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3615,7 +3624,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="96"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3644,7 +3653,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="96"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3673,7 +3682,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="96"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3702,7 +3711,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="96"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3731,7 +3740,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="96"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3760,7 +3769,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="95" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3791,7 +3800,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="96"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3820,7 +3829,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="96"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3849,7 +3858,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="96"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3878,7 +3887,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="97"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5109,13 +5118,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5127,6 +5129,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5137,8 +5146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5170,43 +5179,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="97"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -5251,58 +5260,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="99" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="99" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -5327,23 +5336,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5397,7 +5406,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="95" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5454,7 +5463,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="96"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5493,7 +5502,7 @@
       <c r="R8" s="78"/>
       <c r="S8" s="84"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="96"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5532,7 +5541,7 @@
       <c r="R9" s="78"/>
       <c r="S9" s="84"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="96"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5545,7 +5554,7 @@
       <c r="B10" s="77">
         <v>44352</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="78" t="s">
         <v>63</v>
       </c>
@@ -5571,7 +5580,7 @@
       <c r="R10" s="78"/>
       <c r="S10" s="84"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="96"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5584,7 +5593,7 @@
       <c r="B11" s="77">
         <v>44354</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="37">
         <v>44355</v>
       </c>
       <c r="D11" s="38" t="s">
@@ -5628,7 +5637,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="96"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5638,26 +5647,56 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37">
+        <v>44361</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44361</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868926033929354</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="G12" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="95" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5670,7 +5709,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="38"/>
@@ -5688,7 +5727,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="96"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5699,7 +5738,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
@@ -5717,7 +5756,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="96"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5728,7 +5767,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="38"/>
@@ -5746,7 +5785,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="96"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5757,7 +5796,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
       <c r="F16" s="62"/>
@@ -5775,7 +5814,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="97"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5786,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="38"/>
@@ -5813,7 +5852,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="38"/>
@@ -5840,7 +5879,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="38"/>
@@ -5871,7 +5910,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="38"/>
@@ -5903,7 +5942,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="38"/>
@@ -5935,7 +5974,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="38"/>
@@ -5958,7 +5997,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5967,7 +6006,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="38"/>
@@ -5994,7 +6033,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="38"/>
@@ -6021,7 +6060,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="38"/>
@@ -6052,7 +6091,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="38"/>
@@ -6084,7 +6123,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
       <c r="F27" s="38"/>
@@ -6107,7 +6146,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -6363,7 +6402,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6427,7 +6466,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -7006,13 +7045,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7024,6 +7056,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7067,43 +7106,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="97"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7148,58 +7187,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="99" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="99" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="92" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7224,23 +7263,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="93"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7266,7 +7305,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="95" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7297,7 +7336,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="96"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7326,7 +7365,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="96"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7355,7 +7394,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="96"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7384,7 +7423,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="96"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7413,7 +7452,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="96"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7442,7 +7481,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="95" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7473,7 +7512,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="96"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7502,7 +7541,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="96"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7531,7 +7570,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="96"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7560,7 +7599,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="97"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8791,6 +8830,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8802,13 +8848,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="120">
   <si>
     <t>STT</t>
   </si>
@@ -288,106 +288,115 @@
     <t>Thay vỏ hộp</t>
   </si>
   <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180115</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Khay sim chập chờn</t>
+  </si>
+  <si>
+    <t>Thay khay sim</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test lại thiết bị </t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>SE.2.03.---25.111215</t>
+  </si>
+  <si>
+    <t>Lock: 124.158.005.014,16870</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nổ nguồn</t>
+  </si>
+  <si>
+    <t>Thay cầu chì, diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Thay module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>Imei mới: 868926033950178</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thay vỏ làm mới</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thiếu linh kiện</t>
+  </si>
+  <si>
     <t>Thiếu linh kiện giữ lại</t>
   </si>
   <si>
-    <t>Thiết bị hoạt động bình thường</t>
-  </si>
-  <si>
-    <t>TG102SE</t>
-  </si>
-  <si>
-    <t>W.2.00.---19.200527</t>
-  </si>
-  <si>
-    <t>125.212.203.114,16363</t>
-  </si>
-  <si>
-    <t>Xử lý lại nguồn module GSM, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>W.2.00.---21.200630</t>
-  </si>
-  <si>
-    <t>SE.3.00.---02.180115</t>
-  </si>
-  <si>
-    <t>SE.4.00.---06.200630</t>
-  </si>
-  <si>
-    <t>Khay sim chập chờn</t>
-  </si>
-  <si>
-    <t>Thay khay sim</t>
-  </si>
-  <si>
-    <t>125.212.203.114,16969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test lại thiết bị </t>
-  </si>
-  <si>
-    <t>SE.3.00.---02.180711</t>
-  </si>
-  <si>
-    <t>125.212.203.114,14747</t>
-  </si>
-  <si>
-    <t>Thiết bị reset liên tục</t>
-  </si>
-  <si>
-    <t>Nạp lại FW</t>
-  </si>
-  <si>
-    <t>Lock: 125.212.203.114,14747</t>
-  </si>
-  <si>
-    <t>SE.2.03.---25.111215</t>
-  </si>
-  <si>
-    <t>Lock: 124.158.005.014,16870</t>
-  </si>
-  <si>
-    <t>Thiết bị chập nổ nguồn</t>
-  </si>
-  <si>
-    <t>Thay cầu chì, diode quá áp, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>Lock: 125.212.203.114,15959</t>
-  </si>
-  <si>
-    <t>Hết hạn dịch vụ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Thiết bị lỗi module GSM</t>
-  </si>
-  <si>
-    <t>Thay module GSM, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>GSM,NCFW</t>
-  </si>
-  <si>
-    <t>Imei mới: 868926033950178</t>
-  </si>
-  <si>
-    <t>Lock: 125.212.203.114,14242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W.1.00.---01.181101 </t>
-  </si>
-  <si>
-    <t>Thiết bị không nhận sim</t>
-  </si>
-  <si>
-    <t>Xử lý lại nguồn, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>Thay vỏ làm mới</t>
+    <t>Test lại thiết bị, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -593,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,6 +832,57 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,63 +894,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,43 +1234,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1312,58 +1315,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="99" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1388,23 +1391,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="76" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1418,7 +1421,7 @@
         <v>44355</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="39">
         <v>868345035589050</v>
@@ -1429,16 +1432,16 @@
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>90</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>91</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>38</v>
@@ -1458,7 +1461,7 @@
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="75"/>
-      <c r="U6" s="95" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1477,7 +1480,7 @@
         <v>44355</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="39">
         <v>861694031753666</v>
@@ -1487,22 +1490,22 @@
         <v>65</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="50" t="s">
         <v>68</v>
       </c>
       <c r="J7" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="40" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>109</v>
       </c>
       <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
@@ -1515,11 +1518,11 @@
         <v>76</v>
       </c>
       <c r="R7" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="75"/>
-      <c r="U7" s="96"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>44355</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="39">
         <v>861694031110701</v>
@@ -1546,20 +1549,20 @@
         <v>65</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="86" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="K8" s="78" t="s">
+        <v>90</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="40" t="s">
@@ -1576,7 +1579,7 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="75"/>
-      <c r="U8" s="96"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>44355</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="39">
         <v>861694031760059</v>
@@ -1604,19 +1607,19 @@
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="K9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="40" t="s">
         <v>103</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>104</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
@@ -1633,7 +1636,7 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="75"/>
-      <c r="U9" s="96"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="39">
         <v>202103261225338</v>
@@ -1661,17 +1664,17 @@
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40" t="s">
@@ -1688,7 +1691,7 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="75"/>
-      <c r="U10" s="96"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>44355</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="39">
         <v>861694037976113</v>
@@ -1716,17 +1719,17 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="40" t="s">
         <v>97</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>98</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M11" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
@@ -1743,7 +1746,7 @@
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="75"/>
-      <c r="U11" s="96"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>44355</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="39">
         <v>861694031749318</v>
@@ -1774,14 +1777,14 @@
         <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40" t="s">
@@ -1798,7 +1801,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="75"/>
-      <c r="U12" s="95" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1817,7 +1820,7 @@
         <v>44355</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="39">
         <v>202105191407643</v>
@@ -1828,17 +1831,17 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="40" t="s">
@@ -1855,7 +1858,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="75"/>
-      <c r="U13" s="96"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>44355</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="39">
         <v>861694031119132</v>
@@ -1883,17 +1886,17 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40" t="s">
@@ -1910,7 +1913,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="75"/>
-      <c r="U14" s="96"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>44355</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="39">
         <v>862631034723055</v>
@@ -1938,17 +1941,17 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="40" t="s">
@@ -1965,7 +1968,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="96"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>44355</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="39">
         <v>866104024656145</v>
@@ -1993,17 +1996,17 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="40" t="s">
@@ -2020,7 +2023,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="97"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>44355</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="39">
         <v>866104022178977</v>
@@ -2048,17 +2051,17 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="40" t="s">
@@ -2711,7 +2714,7 @@
       <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
@@ -3340,43 +3343,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3421,58 +3424,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="99" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3497,23 +3500,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3565,7 +3568,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="95" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3600,7 +3603,7 @@
         <v>67</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="61" t="s">
         <v>78</v>
@@ -3624,7 +3627,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="96"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3653,7 +3656,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="96"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3682,7 +3685,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="96"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3711,7 +3714,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="96"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3740,7 +3743,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="96"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3769,7 +3772,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="95" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3800,7 +3803,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="96"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3829,7 +3832,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="96"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3858,7 +3861,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="96"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3887,7 +3890,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="97"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5146,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5179,43 +5182,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -5260,58 +5263,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="99" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -5336,23 +5339,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="73" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5386,10 +5389,10 @@
         <v>73</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
@@ -5406,7 +5409,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="74"/>
-      <c r="U6" s="95" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5463,124 +5466,154 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="74"/>
-      <c r="U7" s="96"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="74"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="37">
         <v>44352</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78" t="s">
+      <c r="C8" s="37">
+        <v>44362</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="79">
         <v>864811037118437</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="84"/>
+      <c r="H8" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="1"/>
       <c r="T8" s="74"/>
-      <c r="U8" s="96"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="74"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="37">
         <v>44352</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78" t="s">
+      <c r="C9" s="37">
+        <v>44362</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="79">
         <v>864811036970148</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78" t="s">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="84"/>
+      <c r="H9" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="1"/>
       <c r="T9" s="74"/>
-      <c r="U9" s="96"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="74"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="37">
         <v>44352</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="37">
+        <v>44362</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="79">
         <v>868345035624402</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="80"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="84"/>
+      <c r="H10" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="1"/>
       <c r="T10" s="74"/>
-      <c r="U10" s="96"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5590,7 +5623,7 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="37">
         <v>44354</v>
       </c>
       <c r="C11" s="37">
@@ -5614,13 +5647,13 @@
         <v>75</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M11" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="40" t="s">
@@ -5637,7 +5670,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="74"/>
-      <c r="U11" s="96"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5664,22 +5697,22 @@
         <v>65</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" s="56" t="s">
         <v>68</v>
       </c>
       <c r="J12" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="40" t="s">
         <v>114</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>115</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40" t="s">
@@ -5692,11 +5725,11 @@
         <v>76</v>
       </c>
       <c r="R12" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="74"/>
-      <c r="U12" s="95" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5708,55 +5741,95 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="37">
+        <v>44363</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44363</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868345035624402</v>
+      </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="I13" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="74"/>
-      <c r="U13" s="96"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="W13" s="74"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="93">
         <v>9</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
+      <c r="B14" s="94">
+        <v>44363</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="96">
+        <v>869627031772403</v>
+      </c>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="97"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="93"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="93"/>
       <c r="T14" s="74"/>
-      <c r="U14" s="96"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5766,26 +5839,54 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="37">
+        <v>44363</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44363</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868926033937258</v>
+      </c>
       <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="I15" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="96"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5814,7 +5915,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="97"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5933,7 +6034,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5965,7 +6066,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5997,7 +6098,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -6146,7 +6247,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -6210,7 +6311,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -6402,7 +6503,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6466,7 +6567,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6584,7 +6685,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -7106,43 +7207,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7187,58 +7288,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="99" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7263,23 +7364,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7305,7 +7406,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="95" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7336,7 +7437,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="96"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7365,7 +7466,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="96"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7394,7 +7495,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="96"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7423,7 +7524,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="96"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7452,7 +7553,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="96"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7481,7 +7582,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="95" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7512,7 +7613,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="96"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7541,7 +7642,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="96"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7570,7 +7671,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="96"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7599,7 +7700,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="97"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102SE" sheetId="33" r:id="rId1"/>
-    <sheet name="TG102LE" sheetId="31" r:id="rId2"/>
-    <sheet name="TG102V" sheetId="32" r:id="rId3"/>
+    <sheet name="TG102LE" sheetId="31" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="32" r:id="rId2"/>
+    <sheet name="TG102SE" sheetId="33" r:id="rId3"/>
     <sheet name="TongThang" sheetId="25" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -397,6 +397,42 @@
   </si>
   <si>
     <t>Test lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connectoer</t>
+  </si>
+  <si>
+    <t>Xử lý lại khay sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liện tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>LK,MCH</t>
   </si>
 </sst>
 </file>
@@ -602,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,9 +853,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -841,6 +874,21 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -879,21 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,6 +1234,4142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="84"/>
+      <c r="K5" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44352</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44354</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183038052614</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="71"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44352</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44354</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>867717030425020</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="71"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44371</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44371</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>867857039939116</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="71"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="71"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="71"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="71"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="71"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="71"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="71"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="71"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="71"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="71"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>2</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>4</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="84"/>
+      <c r="K5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44352</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44354</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868926033939825</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="73"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44352</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44354</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="39">
+        <v>866050031761347</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="73"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44352</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44362</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="78">
+        <v>864811037118437</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="73"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37">
+        <v>44352</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44362</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="78">
+        <v>864811036970148</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="73"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44352</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44362</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="78">
+        <v>868345035624402</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="73"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37">
+        <v>44354</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44355</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868926033939288</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="41"/>
+      <c r="O11" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="73"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37">
+        <v>44361</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44361</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868926033929354</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="73"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37">
+        <v>44363</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44363</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868345035624402</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="73"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
+        <v>9</v>
+      </c>
+      <c r="B14" s="80">
+        <v>44363</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="82">
+        <v>869627031772403</v>
+      </c>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="83"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="79"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="73"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37">
+        <v>44363</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44363</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868926033937258</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="73"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="37">
+        <v>44371</v>
+      </c>
+      <c r="C16" s="9">
+        <v>44371</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="39">
+        <v>866050031761347</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="73"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="37">
+        <v>44371</v>
+      </c>
+      <c r="C17" s="9">
+        <v>44371</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868926033993517</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="73"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="37">
+        <v>44371</v>
+      </c>
+      <c r="C18" s="9">
+        <v>44371</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="39">
+        <v>868926033962041</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="37">
+        <v>44371</v>
+      </c>
+      <c r="C19" s="9">
+        <v>44371</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="39">
+        <v>868926033931780</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="37">
+        <v>44371</v>
+      </c>
+      <c r="C20" s="9">
+        <v>44371</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="39">
+        <v>868926033907830</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="37">
+        <v>44372</v>
+      </c>
+      <c r="C21" s="9">
+        <v>44372</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="39">
+        <v>868926033965069</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>11</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="37">
+        <v>44372</v>
+      </c>
+      <c r="C22" s="9">
+        <v>44372</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="39">
+        <v>864811036970148</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>6</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="37">
+        <v>44372</v>
+      </c>
+      <c r="C23" s="9">
+        <v>44372</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="39">
+        <v>868926033922060</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="37">
+        <v>44372</v>
+      </c>
+      <c r="C24" s="9">
+        <v>44372</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="39">
+        <v>868345035626068</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>10</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>4</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>3</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>1</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>6</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>24</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>3</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>1</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
@@ -1234,43 +5403,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1315,99 +5484,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="75" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="76" t="s">
+      <c r="J5" s="84"/>
+      <c r="K5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +5606,7 @@
       <c r="J6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="76" t="s">
         <v>89</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -1460,14 +5629,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="88" t="s">
+      <c r="T6" s="74"/>
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="75"/>
+      <c r="W6" s="74"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1498,7 +5667,7 @@
       <c r="J7" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="76" t="s">
         <v>95</v>
       </c>
       <c r="L7" s="40" t="s">
@@ -1521,12 +5690,12 @@
         <v>109</v>
       </c>
       <c r="S7" s="1"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="89"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="75"/>
+      <c r="W7" s="74"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1557,7 +5726,7 @@
       <c r="J8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="77" t="s">
         <v>90</v>
       </c>
       <c r="L8" s="40"/>
@@ -1578,12 +5747,12 @@
         <v>25</v>
       </c>
       <c r="S8" s="1"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="89"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="75"/>
+      <c r="W8" s="74"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1635,12 +5804,12 @@
         <v>77</v>
       </c>
       <c r="S9" s="1"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="89"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="75"/>
+      <c r="W9" s="74"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1690,12 +5859,12 @@
         <v>25</v>
       </c>
       <c r="S10" s="1"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="89"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="75"/>
+      <c r="W10" s="74"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1745,12 +5914,12 @@
         <v>23</v>
       </c>
       <c r="S11" s="1"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="89"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="75"/>
+      <c r="W11" s="74"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1800,14 +5969,14 @@
         <v>25</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="88" t="s">
+      <c r="T12" s="74"/>
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="75"/>
+      <c r="W12" s="74"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1857,12 +6026,12 @@
         <v>25</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="89"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="75"/>
+      <c r="W13" s="74"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1912,12 +6081,12 @@
         <v>30</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="89"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="75"/>
+      <c r="W14" s="74"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1968,11 +6137,11 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="75"/>
+      <c r="W15" s="74"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -2023,11 +6192,11 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="75"/>
+      <c r="W16" s="74"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2078,9 +6247,9 @@
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="75"/>
+      <c r="U17" s="74"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="75"/>
+      <c r="W17" s="74"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2132,7 +6301,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="76" t="s">
+      <c r="U19" s="75" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -2313,7 +6482,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="76" t="s">
+      <c r="U25" s="75" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -3057,3870 +7226,6 @@
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
         <v>0</v>
-      </c>
-      <c r="U48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="33"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
-        <v>45</v>
-      </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="33"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="33"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="33"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>48</v>
-      </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="33"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>49</v>
-      </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="33"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="33"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17" style="20" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
-    <col min="10" max="10" width="53" style="20" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="58" style="20" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="20"/>
-    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="47"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="27"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="27"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="48"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="48"/>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37">
-        <v>44352</v>
-      </c>
-      <c r="C6" s="37">
-        <v>44354</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="39">
-        <v>868183038052614</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="71"/>
-    </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37">
-        <v>44352</v>
-      </c>
-      <c r="C7" s="37">
-        <v>44354</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="39">
-        <v>867717030425020</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="71"/>
-    </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="71"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="71"/>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="71"/>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="71"/>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="71"/>
-    </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="71"/>
-    </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="71"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="71"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="71"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="71"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="49"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="14"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
-      </c>
-      <c r="W22" s="14"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="14"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="14"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="49"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="14"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="14"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
-      </c>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="10">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="14"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="10">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="14"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="10">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="10">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="14"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
-      </c>
-      <c r="W35" s="14"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="10">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
-      </c>
-      <c r="W36" s="14"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="10">
-        <f>SUM(V26:V36)</f>
-        <v>3</v>
-      </c>
-      <c r="W37" s="14"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="14"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="14"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="10">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="14"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="10">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="14"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="14"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="14"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="35">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="33"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
-        <v>45</v>
-      </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="33"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="33"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="33"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>48</v>
-      </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="33"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>49</v>
-      </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="33"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="33"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="69" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17" style="20" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
-    <col min="10" max="10" width="53" style="20" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="58" style="20" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="20"/>
-    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="47"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="27"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="27"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="48"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="48"/>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37">
-        <v>44352</v>
-      </c>
-      <c r="C6" s="37">
-        <v>44354</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="39">
-        <v>868926033939825</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="74"/>
-    </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37">
-        <v>44352</v>
-      </c>
-      <c r="C7" s="37">
-        <v>44354</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="39">
-        <v>866050031761347</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="74"/>
-    </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37">
-        <v>44352</v>
-      </c>
-      <c r="C8" s="37">
-        <v>44362</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="79">
-        <v>864811037118437</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="74"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="37">
-        <v>44352</v>
-      </c>
-      <c r="C9" s="37">
-        <v>44362</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="79">
-        <v>864811036970148</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="74"/>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="37">
-        <v>44352</v>
-      </c>
-      <c r="C10" s="37">
-        <v>44362</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="79">
-        <v>868345035624402</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="74"/>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="37">
-        <v>44354</v>
-      </c>
-      <c r="C11" s="37">
-        <v>44355</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="39">
-        <v>868926033939288</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="74"/>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="37">
-        <v>44361</v>
-      </c>
-      <c r="C12" s="37">
-        <v>44361</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="39">
-        <v>868926033929354</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="74"/>
-    </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="37">
-        <v>44363</v>
-      </c>
-      <c r="C13" s="37">
-        <v>44363</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="39">
-        <v>868345035624402</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="74"/>
-    </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93">
-        <v>9</v>
-      </c>
-      <c r="B14" s="94">
-        <v>44363</v>
-      </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="96">
-        <v>869627031772403</v>
-      </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="N14" s="93"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="74"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="37">
-        <v>44363</v>
-      </c>
-      <c r="C15" s="37">
-        <v>44363</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="39">
-        <v>868926033937258</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R15" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="74"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="74"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="74"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="49"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="14"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
-      </c>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
-      </c>
-      <c r="W22" s="14"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="14"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="14"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="49"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="14"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>4</v>
-      </c>
-      <c r="W27" s="14"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>4</v>
-      </c>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="10">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="14"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="10">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="14"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="10">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="10">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="14"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>5</v>
-      </c>
-      <c r="W35" s="14"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="10">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="14"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="10">
-        <f>SUM(V26:V36)</f>
-        <v>13</v>
-      </c>
-      <c r="W37" s="14"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="14"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="14"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="10">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="14"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="10">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>3</v>
-      </c>
-      <c r="W41" s="14"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="14"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="14"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="35">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -7207,43 +7512,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7288,58 +7593,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="92" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7364,23 +7669,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="92"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7406,7 +7711,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7437,7 +7742,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="93"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7466,7 +7771,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="93"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7495,7 +7800,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7524,7 +7829,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7553,7 +7858,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7582,7 +7887,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="92" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7613,7 +7918,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="93"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7642,7 +7947,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="93"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7671,7 +7976,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="93"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7700,7 +8005,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="94"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8931,13 +9236,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8949,6 +9247,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="31" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>LK,MCH</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048288024</t>
   </si>
 </sst>
 </file>
@@ -886,22 +892,7 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,6 +914,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1264,43 +1270,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1345,58 +1351,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1421,23 +1427,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1489,7 +1495,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1548,7 +1554,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1605,7 +1611,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1634,7 +1640,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1663,7 +1669,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1692,7 +1698,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1727,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1752,7 +1758,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1781,7 +1787,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1810,7 +1816,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1845,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3070,6 +3076,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3081,13 +3094,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3098,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S24"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3131,43 +3137,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3212,58 +3218,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3288,23 +3294,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="71" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3358,7 +3364,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="72"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3415,7 +3421,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="72"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3464,7 +3470,7 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3513,7 +3519,7 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="72"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3562,7 +3568,7 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3619,7 +3625,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3678,7 +3684,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="72"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3737,48 +3743,62 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="72"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="W13" s="72"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="79">
+      <c r="B14" s="37">
         <v>44363</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80" t="s">
+      <c r="C14" s="37">
+        <v>44495</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="77">
         <v>869627031772403</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80" t="s">
+      <c r="F14" s="40"/>
+      <c r="G14" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="N14" s="78"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="78"/>
+      <c r="H14" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="1"/>
       <c r="T14" s="72"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3835,7 +3855,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3890,7 +3910,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4173,7 +4193,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -4440,7 +4460,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -4760,7 +4780,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -5113,7 +5133,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -5339,6 +5359,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5350,13 +5377,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5400,43 +5420,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -5481,58 +5501,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5557,23 +5577,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5627,7 +5647,7 @@
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5688,7 +5708,7 @@
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5745,7 +5765,7 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5802,7 +5822,7 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5857,7 +5877,7 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5912,7 +5932,7 @@
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5967,7 +5987,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6024,7 +6044,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6079,7 +6099,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6134,7 +6154,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6189,7 +6209,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7448,13 +7468,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7466,6 +7479,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7476,7 +7496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -7509,43 +7529,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7590,58 +7610,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
@@ -7666,23 +7686,23 @@
       <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7734,7 +7754,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="42"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7793,7 +7813,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="42"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7850,7 +7870,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="42"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7907,7 +7927,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="42"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7962,7 +7982,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8011,7 +8031,7 @@
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="42"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8060,7 +8080,7 @@
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="42"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8111,7 +8131,7 @@
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="42"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8168,7 +8188,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="42"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8227,7 +8247,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8284,7 +8304,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10121,13 +10141,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10139,6 +10152,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
